--- a/eyan_helper/src/main/resources/eu/eyan/graph/graph_feature_matrix.xlsx
+++ b/eyan_helper/src/main/resources/eu/eyan/graph/graph_feature_matrix.xlsx
@@ -1,21 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graph" sheetId="1" r:id="rId1"/>
+    <sheet name="Edge" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The edges must have the same type vertices as in the vertices…</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+  <si>
+    <t>vertices</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>add(vertex)</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>undirected</t>
+  </si>
+  <si>
+    <t>directed</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>add(edge)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>addUndirectedEdge(v,v)</t>
+  </si>
+  <si>
+    <t>addDirectedEdge(v,v)</t>
+  </si>
+  <si>
+    <t>Graph
+Feature
+Matrix</t>
+  </si>
+  <si>
+    <t>Graph Edge
+Feature
+Matrix</t>
+  </si>
+  <si>
+    <t>edges(v)</t>
+  </si>
+  <si>
+    <t>edges(v*)</t>
+  </si>
+  <si>
+    <t>predecessor</t>
+  </si>
+  <si>
+    <t>successor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +121,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -41,17 +185,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +519,600 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="133.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="4" customWidth="1"/>
+    <col min="2" max="11" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/eyan_helper/src/main/resources/eu/eyan/graph/graph_feature_matrix.xlsx
+++ b/eyan_helper/src/main/resources/eu/eyan/graph/graph_feature_matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="22">
   <si>
     <t>vertices</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>successor</t>
+  </si>
+  <si>
+    <t>addAll(edges)</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>degree(v)</t>
   </si>
 </sst>
 </file>
@@ -520,17 +532,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="17" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="133.5" x14ac:dyDescent="0.25">
@@ -573,10 +585,18 @@
       <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -624,6 +644,18 @@
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="N2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -663,6 +695,18 @@
       <c r="M3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="N3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -698,6 +742,18 @@
         <v>9</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -734,6 +790,18 @@
       </c>
       <c r="M5" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -766,6 +834,18 @@
         <v>9</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -797,6 +877,18 @@
         <v>9</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -826,6 +918,18 @@
         <v>9</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -853,6 +957,18 @@
         <v>9</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -878,6 +994,18 @@
         <v>9</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -901,6 +1029,18 @@
         <v>9</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -922,6 +1062,18 @@
         <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -943,6 +1095,122 @@
       <c r="M13" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="N13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -955,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1277,12 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1024,6 +1298,12 @@
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1035,6 +1315,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1048,6 +1334,12 @@
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1057,7 +1349,12 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1068,7 +1365,9 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
